--- a/data/outputs/OR_elsevier/53.xlsx
+++ b/data/outputs/OR_elsevier/53.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS91"/>
+  <dimension ref="A1:BU91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -941,6 +951,12 @@
           <t>2-s2.0-84930755271</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1161,6 +1177,12 @@
         <is>
           <t>2-s2.0-84933278693</t>
         </is>
+      </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -1371,6 +1393,12 @@
           <t>2-s2.0-84939651624</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1580,6 +1608,12 @@
           <t>2-s2.0-84931075488</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1796,6 +1830,12 @@
         <is>
           <t>2-s2.0-84929129477</t>
         </is>
+      </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -2012,6 +2052,12 @@
           <t>2-s2.0-84945480951</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2231,6 +2277,12 @@
           <t>2-s2.0-84925938814</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2448,6 +2500,12 @@
           <t>2-s2.0-84945486698</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2665,6 +2723,12 @@
           <t>2-s2.0-84941874377</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2892,6 +2956,12 @@
           <t>2-s2.0-84941875250</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3109,6 +3179,12 @@
           <t>2-s2.0-84938414847</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3336,6 +3412,12 @@
           <t>2-s2.0-84930767058</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3553,6 +3635,12 @@
           <t>2-s2.0-84929131515</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3769,6 +3857,12 @@
         <is>
           <t>2-s2.0-84945463286</t>
         </is>
+      </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="16">
@@ -3979,6 +4073,12 @@
           <t>2-s2.0-84937253558</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4200,6 +4300,12 @@
           <t>2-s2.0-84939654678</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4417,6 +4523,12 @@
           <t>2-s2.0-84929133658</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4640,6 +4752,12 @@
           <t>2-s2.0-84941878936</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4869,6 +4987,12 @@
           <t>2-s2.0-84938390139</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5086,6 +5210,12 @@
           <t>2-s2.0-84937251797</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5303,6 +5433,12 @@
           <t>2-s2.0-84933278560</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5524,6 +5660,12 @@
           <t>2-s2.0-84941875333</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5743,6 +5885,12 @@
           <t>2-s2.0-84937978044</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5972,6 +6120,12 @@
           <t>2-s2.0-84937967570</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6196,6 +6350,12 @@
         <is>
           <t>2-s2.0-84929132482</t>
         </is>
+      </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="27">
@@ -6406,6 +6566,12 @@
           <t>2-s2.0-84939654293</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6622,6 +6788,12 @@
         <is>
           <t>2-s2.0-84933279400</t>
         </is>
+      </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -6832,6 +7004,12 @@
           <t>2-s2.0-84930931080</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7048,6 +7226,12 @@
         <is>
           <t>2-s2.0-84929504970</t>
         </is>
+      </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="31">
@@ -7262,6 +7446,12 @@
           <t>2-s2.0-84937976753</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7486,6 +7676,12 @@
         <is>
           <t>2-s2.0-85027948091</t>
         </is>
+      </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -7700,6 +7896,12 @@
           <t>2-s2.0-84988240494</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7916,6 +8118,12 @@
         <is>
           <t>2-s2.0-84945462770</t>
         </is>
+      </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -8130,6 +8338,12 @@
           <t>2-s2.0-84942027816</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8343,6 +8557,12 @@
           <t>2-s2.0-84937977779</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8560,6 +8780,12 @@
           <t>2-s2.0-84988299819</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8777,6 +9003,12 @@
           <t>2-s2.0-84925969965</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8998,6 +9230,12 @@
           <t>2-s2.0-84941879504</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9211,6 +9449,12 @@
           <t>2-s2.0-84930929101</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9427,6 +9671,12 @@
         <is>
           <t>2-s2.0-84988302623</t>
         </is>
+      </c>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="42">
@@ -9639,6 +9889,12 @@
           <t>2-s2.0-84925965620</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9868,6 +10124,12 @@
           <t>2-s2.0-84941879849</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10088,6 +10350,12 @@
         <is>
           <t>2-s2.0-84938419280</t>
         </is>
+      </c>
+      <c r="BT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -10298,6 +10566,12 @@
           <t>2-s2.0-84937252112</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10523,6 +10797,12 @@
           <t>2-s2.0-84931574513</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10744,6 +11024,12 @@
           <t>2-s2.0-84931561310</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10961,6 +11247,12 @@
           <t>2-s2.0-84930926957</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11178,6 +11470,12 @@
           <t>2-s2.0-84930755819</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11395,6 +11693,12 @@
           <t>2-s2.0-84930763440</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11611,6 +11915,12 @@
         <is>
           <t>2-s2.0-84929134612</t>
         </is>
+      </c>
+      <c r="BT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="52">
@@ -11821,6 +12131,12 @@
           <t>2-s2.0-84925937275</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -12030,6 +12346,12 @@
           <t>2-s2.0-84945467445</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12251,6 +12573,12 @@
           <t>2-s2.0-84939651932</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12460,6 +12788,12 @@
           <t>2-s2.0-84937975323</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12676,6 +13010,12 @@
         <is>
           <t>2-s2.0-84937978586</t>
         </is>
+      </c>
+      <c r="BT56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -12890,6 +13230,12 @@
           <t>2-s2.0-84937967985</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13107,6 +13453,12 @@
           <t>2-s2.0-84933279432</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13324,6 +13676,12 @@
           <t>2-s2.0-84929131320</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13541,6 +13899,12 @@
           <t>2-s2.0-84945486430</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13772,6 +14136,12 @@
           <t>2-s2.0-84941880570</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13989,6 +14359,12 @@
           <t>2-s2.0-84937969837</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14206,6 +14582,12 @@
           <t>2-s2.0-84930931032</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14423,6 +14805,12 @@
           <t>2-s2.0-84988285608</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14652,6 +15040,12 @@
           <t>2-s2.0-84929134634</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14877,6 +15271,12 @@
           <t>2-s2.0-84929132076</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -15094,6 +15494,12 @@
           <t>2-s2.0-84941876966</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15317,6 +15723,12 @@
           <t>2-s2.0-84938414543</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15545,6 +15957,12 @@
         <is>
           <t>2-s2.0-84938417047</t>
         </is>
+      </c>
+      <c r="BT69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="70">
@@ -15759,6 +16177,12 @@
           <t>2-s2.0-84938416495</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15968,6 +16392,12 @@
           <t>2-s2.0-84937253536</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -16179,6 +16609,12 @@
           <t>2-s2.0-84937252933</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16395,6 +16831,12 @@
         <is>
           <t>2-s2.0-84938422461</t>
         </is>
+      </c>
+      <c r="BT73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -16601,6 +17043,12 @@
           <t>2-s2.0-84937919508</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16814,6 +17262,12 @@
           <t>2-s2.0-84930929487</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -17031,6 +17485,12 @@
           <t>2-s2.0-84929502226</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -17248,6 +17708,12 @@
           <t>2-s2.0-84939652777</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17472,6 +17938,12 @@
         <is>
           <t>2-s2.0-84939654453</t>
         </is>
+      </c>
+      <c r="BT78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -17686,6 +18158,12 @@
           <t>2-s2.0-84931570878</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17899,6 +18377,12 @@
           <t>2-s2.0-84929129602</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -18119,6 +18603,12 @@
         <is>
           <t>2-s2.0-84938414839</t>
         </is>
+      </c>
+      <c r="BT81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="82">
@@ -18317,6 +18807,12 @@
       <c r="BQ82" t="inlineStr"/>
       <c r="BR82" t="inlineStr"/>
       <c r="BS82" t="inlineStr"/>
+      <c r="BT82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18538,6 +19034,12 @@
           <t>2-s2.0-84937970428</t>
         </is>
       </c>
+      <c r="BT83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18751,6 +19253,12 @@
           <t>2-s2.0-84931561664</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18964,6 +19472,12 @@
           <t>2-s2.0-84930762529</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -19176,6 +19690,12 @@
         <is>
           <t>2-s2.0-84929133600</t>
         </is>
+      </c>
+      <c r="BT86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="87">
@@ -19372,6 +19892,12 @@
         <v>51051837</v>
       </c>
       <c r="BS87" t="inlineStr"/>
+      <c r="BT87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19565,6 +20091,12 @@
       <c r="BQ88" t="inlineStr"/>
       <c r="BR88" t="inlineStr"/>
       <c r="BS88" t="inlineStr"/>
+      <c r="BT88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19766,6 +20298,12 @@
           <t>2-s2.0-84929134139</t>
         </is>
       </c>
+      <c r="BT89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19959,6 +20497,12 @@
       <c r="BQ90" t="inlineStr"/>
       <c r="BR90" t="inlineStr"/>
       <c r="BS90" t="inlineStr"/>
+      <c r="BT90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -20152,6 +20696,12 @@
           <t>2-s2.0-84986898456</t>
         </is>
       </c>
+      <c r="BT91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
